--- a/biology/Zoologie/Flabellina/Flabellina.xlsx
+++ b/biology/Zoologie/Flabellina/Flabellina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flabellina forme un genre de mollusques gastéropodes marins appartenant à la famille des Flabellinidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 septembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 septembre 2021) :
 Flabellina affinis (Gmelin, 1791)
 Flabellina alternata Ortea &amp; Espinosa, 1998
 Flabellina bandeli (Ev. Marcus, 1976)
@@ -527,7 +541,7 @@
 Flabellina gaditana (Cervera, García-Gómez &amp; García, 1987)
 Flabellina ilidioi Calado, Ortea &amp; Caballer, 2005
 Flabellina llerae Ortea, 1989
-Il est à noter qu'un grand nombre d'espèces auparavant placées dans ce vieux genre ont été déplacées depuis, dans d'autres genres de la famille des Flabellinidae ou même dans d'autres familles du groupe des Fionoidea[2].
+Il est à noter qu'un grand nombre d'espèces auparavant placées dans ce vieux genre ont été déplacées depuis, dans d'autres genres de la famille des Flabellinidae ou même dans d'autres familles du groupe des Fionoidea.
 </t>
         </is>
       </c>
